--- a/merged_data_blinded_02_mod_visual.xlsx
+++ b/merged_data_blinded_02_mod_visual.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="336">
   <si>
     <t>rmse</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>BnhV1weeRf'</t>
+  </si>
+  <si>
+    <t>implicit Deep Network Prior</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1458,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6932,7 +6935,7 @@
         <v>333</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>202</v>

--- a/merged_data_blinded_02_mod_visual.xlsx
+++ b/merged_data_blinded_02_mod_visual.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="335">
   <si>
     <t>rmse</t>
   </si>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>visual2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> implicit Deep Network Prior</t>
   </si>
   <si>
     <t>BnhV1weeRf</t>
@@ -1458,10 +1455,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
+      <selection pane="bottomLeft" activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6920,10 +6917,10 @@
         <v>11.1937</v>
       </c>
       <c r="I96" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="K96" s="9">
         <v>5</v>
@@ -6932,22 +6929,22 @@
         <v>5</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>202</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q96" s="9" t="s">
         <v>214</v>
       </c>
       <c r="R96" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="13:13" x14ac:dyDescent="0.3">

--- a/merged_data_blinded_02_mod_visual.xlsx
+++ b/merged_data_blinded_02_mod_visual.xlsx
@@ -1055,7 +1055,7 @@
     <t>BnhV1weeRf'</t>
   </si>
   <si>
-    <t>implicit Deep Network Prior</t>
+    <t xml:space="preserve"> implicit Deep Network Prior</t>
   </si>
 </sst>
 </file>
@@ -1456,9 +1456,9 @@
   <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P97" sqref="P97"/>
+      <selection pane="bottomLeft" activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
